--- a/IMP URL's.xlsx
+++ b/IMP URL's.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>https://www.linode.com/docs/applications/configuration-management/beginners-guide-chef/</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>http://nz2nz.blogspot.co.uk/?view=classic</t>
+  </si>
+  <si>
+    <t>http://dwbitechguru.blogspot.co.uk/2015/11/finding-out-database-and-table-size-in.html</t>
   </si>
 </sst>
 </file>
@@ -243,11 +246,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -530,11 +533,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N34"/>
+  <dimension ref="B3:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -546,135 +547,135 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -1058,7 +1059,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>31</v>
@@ -1073,8 +1074,41 @@
       <c r="K34" s="5"/>
       <c r="L34" s="6"/>
     </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="C23:L23"/>
     <mergeCell ref="C34:L34"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C7:L7"/>
@@ -1091,21 +1125,6 @@
     <mergeCell ref="C18:L18"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="C32:L32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
@@ -1134,8 +1153,9 @@
     <hyperlink ref="C32" r:id="rId24"/>
     <hyperlink ref="C33" r:id="rId25"/>
     <hyperlink ref="C34" r:id="rId26"/>
+    <hyperlink ref="C35" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>